--- a/support_files/index_fund.xlsx
+++ b/support_files/index_fund.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t xml:space="preserve">category</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t xml:space="preserve">Пермэнергосбыт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мать и дитя</t>
   </si>
   <si>
     <t xml:space="preserve">SBMM</t>
@@ -340,23 +346,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -597,10 +586,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -839,7 +828,7 @@
         <v>45</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -898,17 +887,27 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="n">
-        <f aca="false" t="array" ref="B27:B27">SUBTOTAL(103,B2:B25)</f>
+      <c r="A27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5" t="n">
+        <f aca="false" t="array" ref="B28:B28">SUBTOTAL(103,B2:B25)</f>
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="n">
-        <f aca="false">SUBTOTAL(109,C2:C26)</f>
+      <c r="C28" s="6" t="n">
+        <f aca="false">SUBTOTAL(109,C2:C27)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.5"/>
@@ -949,10 +948,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>7</v>
@@ -960,10 +959,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>93</v>

--- a/support_files/index_fund.xlsx
+++ b/support_files/index_fund.xlsx
@@ -528,7 +528,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -588,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -630,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -729,7 +729,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -872,7 +872,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -894,7 +894,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -926,7 +926,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
